--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_9_qoq_forecast_error_table_latest_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_9_qoq_forecast_error_table_latest_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.07419882731820041</v>
+        <v>-0.07937728594090611</v>
       </c>
       <c r="C2">
-        <v>1.337757721272759</v>
+        <v>1.316068219616539</v>
       </c>
       <c r="D2">
-        <v>9.827596144312645</v>
+        <v>9.638393705627079</v>
       </c>
       <c r="E2">
-        <v>3.134899702432702</v>
+        <v>3.104576252184359</v>
       </c>
       <c r="F2">
-        <v>3.165206548063491</v>
+        <v>3.13384069789644</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0318719375149274</v>
+        <v>-0.02448439541659127</v>
       </c>
       <c r="C3">
-        <v>1.484978161934237</v>
+        <v>1.462623545219845</v>
       </c>
       <c r="D3">
-        <v>9.229147191442671</v>
+        <v>9.051394970963811</v>
       </c>
       <c r="E3">
-        <v>3.03795115027261</v>
+        <v>3.008553634383773</v>
       </c>
       <c r="F3">
-        <v>3.068625194235299</v>
+        <v>3.038389605539716</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.07763877361277893</v>
+        <v>-0.08143474300426477</v>
       </c>
       <c r="C4">
-        <v>1.390091861491201</v>
+        <v>1.364967268314127</v>
       </c>
       <c r="D4">
-        <v>6.971496353914397</v>
+        <v>6.831940587747885</v>
       </c>
       <c r="E4">
-        <v>2.640359133510894</v>
+        <v>2.613798115338651</v>
       </c>
       <c r="F4">
-        <v>2.666567550876379</v>
+        <v>2.639053048004792</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.0027173285822412</v>
+        <v>-0.001877683171190082</v>
       </c>
       <c r="C5">
-        <v>1.635040883269796</v>
+        <v>1.602456891704275</v>
       </c>
       <c r="D5">
-        <v>9.649822969126083</v>
+        <v>9.4526324803627</v>
       </c>
       <c r="E5">
-        <v>3.106416419143783</v>
+        <v>3.074513372936065</v>
       </c>
       <c r="F5">
-        <v>3.139288264952675</v>
+        <v>3.106373886794302</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1033523239345538</v>
+        <v>-0.1039814330460372</v>
       </c>
       <c r="C6">
-        <v>1.503069249315635</v>
+        <v>1.471754775803563</v>
       </c>
       <c r="D6">
-        <v>8.686182792925141</v>
+        <v>8.504042060525727</v>
       </c>
       <c r="E6">
-        <v>2.947233074075605</v>
+        <v>2.91616907269207</v>
       </c>
       <c r="F6">
-        <v>2.97726366649755</v>
+        <v>2.945154824746354</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1086738861366906</v>
+        <v>-0.1015771582092904</v>
       </c>
       <c r="C7">
-        <v>1.81155665319038</v>
+        <v>1.769024061707294</v>
       </c>
       <c r="D7">
-        <v>10.58672230885573</v>
+        <v>10.29407639076258</v>
       </c>
       <c r="E7">
-        <v>3.253724375059408</v>
+        <v>3.208438310262889</v>
       </c>
       <c r="F7">
-        <v>3.299384658924024</v>
+        <v>3.252319194407661</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1026103124608949</v>
+        <v>-0.1097886217413366</v>
       </c>
       <c r="C8">
-        <v>1.862903287318481</v>
+        <v>1.815971081873004</v>
       </c>
       <c r="D8">
-        <v>11.25949010917723</v>
+        <v>10.93971098436304</v>
       </c>
       <c r="E8">
-        <v>3.355516369976047</v>
+        <v>3.307523391355387</v>
       </c>
       <c r="F8">
-        <v>3.404385237612471</v>
+        <v>3.353961707055734</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01927813215077312</v>
+        <v>0.007295727682830271</v>
       </c>
       <c r="C9">
-        <v>2.75967897589998</v>
+        <v>2.609854038779015</v>
       </c>
       <c r="D9">
-        <v>20.27156434060072</v>
+        <v>19.14435649662439</v>
       </c>
       <c r="E9">
-        <v>4.50239540029535</v>
+        <v>4.375426435974485</v>
       </c>
       <c r="F9">
-        <v>4.640920408454592</v>
+        <v>4.50227040007513</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.7218214720634706</v>
+        <v>-0.6545140871090607</v>
       </c>
       <c r="C10">
-        <v>3.276202197113547</v>
+        <v>2.980052884870046</v>
       </c>
       <c r="D10">
-        <v>25.35077529055389</v>
+        <v>23.04619067002914</v>
       </c>
       <c r="E10">
-        <v>5.034955341465691</v>
+        <v>4.800644818149864</v>
       </c>
       <c r="F10">
-        <v>5.252486083647757</v>
+        <v>4.987943682298893</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_9_qoq_forecast_error_table_latest_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_9_qoq_forecast_error_table_latest_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0370360702193368</v>
+        <v>-0.02907897629796788</v>
       </c>
       <c r="C2">
-        <v>0.2877205798324301</v>
+        <v>0.3131278957257717</v>
       </c>
       <c r="D2">
-        <v>0.135345957066826</v>
+        <v>0.181524606355785</v>
       </c>
       <c r="E2">
-        <v>0.3678939481247633</v>
+        <v>0.4260570458938391</v>
       </c>
       <c r="F2">
-        <v>0.3798420736582994</v>
+        <v>0.43998257208981</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01989109342689383</v>
+        <v>0.0370360702193368</v>
       </c>
       <c r="C3">
-        <v>0.3298745939743749</v>
+        <v>0.2877205798324301</v>
       </c>
       <c r="D3">
-        <v>0.1503185731831121</v>
+        <v>0.135345957066826</v>
       </c>
       <c r="E3">
-        <v>0.3877093926939507</v>
+        <v>0.3678939481247633</v>
       </c>
       <c r="F3">
-        <v>0.4030092977225764</v>
+        <v>0.3798420736582994</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06273519545459039</v>
+        <v>0.01989109342689383</v>
       </c>
       <c r="C4">
-        <v>0.2460334154802962</v>
+        <v>0.3298745939743749</v>
       </c>
       <c r="D4">
-        <v>0.09558537405740077</v>
+        <v>0.1503185731831121</v>
       </c>
       <c r="E4">
-        <v>0.3091688439306276</v>
+        <v>0.3877093926939507</v>
       </c>
       <c r="F4">
-        <v>0.3161984462764572</v>
+        <v>0.4030092977225764</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.02711121047383215</v>
+        <v>0.06273519545459039</v>
       </c>
       <c r="C5">
-        <v>0.2779584568479502</v>
+        <v>0.2460334154802962</v>
       </c>
       <c r="D5">
-        <v>0.1216586105046287</v>
+        <v>0.09558537405740077</v>
       </c>
       <c r="E5">
-        <v>0.34879594393374</v>
+        <v>0.3091688439306276</v>
       </c>
       <c r="F5">
-        <v>0.3647135205176791</v>
+        <v>0.3161984462764572</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01088135635153479</v>
+        <v>0.02711121047383215</v>
       </c>
       <c r="C6">
-        <v>0.2849421119723689</v>
+        <v>0.2779584568479502</v>
       </c>
       <c r="D6">
-        <v>0.09825224066429059</v>
+        <v>0.1216586105046287</v>
       </c>
       <c r="E6">
-        <v>0.3134521345664926</v>
+        <v>0.34879594393374</v>
       </c>
       <c r="F6">
-        <v>0.3302084135617004</v>
+        <v>0.3647135205176791</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04428645741563344</v>
+        <v>-0.01088135635153479</v>
       </c>
       <c r="C7">
-        <v>0.3765628100937468</v>
+        <v>0.2849421119723689</v>
       </c>
       <c r="D7">
-        <v>0.1690784592812682</v>
+        <v>0.09825224066429059</v>
       </c>
       <c r="E7">
-        <v>0.4111915116843588</v>
+        <v>0.3134521345664926</v>
       </c>
       <c r="F7">
-        <v>0.4335975266214011</v>
+        <v>0.3302084135617004</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01393931246739222</v>
+        <v>-0.04428645741563344</v>
       </c>
       <c r="C8">
-        <v>0.3509192590318558</v>
+        <v>0.3765628100937468</v>
       </c>
       <c r="D8">
-        <v>0.1607817096315818</v>
+        <v>0.1690784592812682</v>
       </c>
       <c r="E8">
-        <v>0.4009759464501354</v>
+        <v>0.4111915116843588</v>
       </c>
       <c r="F8">
-        <v>0.4284022211487281</v>
+        <v>0.4335975266214011</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03688841855209302</v>
+        <v>-0.01393931246739222</v>
       </c>
       <c r="C9">
-        <v>0.2799590153621541</v>
+        <v>0.3509192590318558</v>
       </c>
       <c r="D9">
-        <v>0.1329006694222477</v>
+        <v>0.1607817096315818</v>
       </c>
       <c r="E9">
-        <v>0.3645554408073589</v>
+        <v>0.4009759464501354</v>
       </c>
       <c r="F9">
-        <v>0.3917438359423185</v>
+        <v>0.4284022211487281</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06364682135181432</v>
+        <v>-0.03688841855209302</v>
       </c>
       <c r="C10">
-        <v>0.1670219060428917</v>
+        <v>0.2799590153621541</v>
       </c>
       <c r="D10">
-        <v>0.03807752624502202</v>
+        <v>0.1329006694222477</v>
       </c>
       <c r="E10">
-        <v>0.1951346362002964</v>
+        <v>0.3645554408073589</v>
       </c>
       <c r="F10">
-        <v>0.2020691219662191</v>
+        <v>0.3917438359423185</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06098076515723314</v>
+        <v>-0.06364682135181432</v>
       </c>
       <c r="C11">
-        <v>0.3262970042453318</v>
+        <v>0.1670219060428917</v>
       </c>
       <c r="D11">
-        <v>0.145288924028067</v>
+        <v>0.03807752624502202</v>
       </c>
       <c r="E11">
-        <v>0.3811678423320454</v>
+        <v>0.1951346362002964</v>
       </c>
       <c r="F11">
-        <v>0.4206695114768026</v>
+        <v>0.2020691219662191</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_9_qoq_forecast_error_table_latest_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_1_9_qoq_forecast_error_table_latest_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02907897629796788</v>
+        <v>-0.07937728594090611</v>
       </c>
       <c r="C2">
-        <v>0.3131278957257717</v>
+        <v>1.316068219616539</v>
       </c>
       <c r="D2">
-        <v>0.181524606355785</v>
+        <v>9.638393705627079</v>
       </c>
       <c r="E2">
-        <v>0.4260570458938391</v>
+        <v>3.104576252184359</v>
       </c>
       <c r="F2">
-        <v>0.43998257208981</v>
+        <v>3.13384069789644</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0370360702193368</v>
+        <v>-0.02448439541659127</v>
       </c>
       <c r="C3">
-        <v>0.2877205798324301</v>
+        <v>1.462623545219845</v>
       </c>
       <c r="D3">
-        <v>0.135345957066826</v>
+        <v>9.051394970963811</v>
       </c>
       <c r="E3">
-        <v>0.3678939481247633</v>
+        <v>3.008553634383773</v>
       </c>
       <c r="F3">
-        <v>0.3798420736582994</v>
+        <v>3.038389605539716</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.01989109342689383</v>
+        <v>-0.08143474300426477</v>
       </c>
       <c r="C4">
-        <v>0.3298745939743749</v>
+        <v>1.364967268314127</v>
       </c>
       <c r="D4">
-        <v>0.1503185731831121</v>
+        <v>6.831940587747885</v>
       </c>
       <c r="E4">
-        <v>0.3877093926939507</v>
+        <v>2.613798115338651</v>
       </c>
       <c r="F4">
-        <v>0.4030092977225764</v>
+        <v>2.639053048004792</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.06273519545459039</v>
+        <v>-0.001877683171190082</v>
       </c>
       <c r="C5">
-        <v>0.2460334154802962</v>
+        <v>1.602456891704275</v>
       </c>
       <c r="D5">
-        <v>0.09558537405740077</v>
+        <v>9.4526324803627</v>
       </c>
       <c r="E5">
-        <v>0.3091688439306276</v>
+        <v>3.074513372936065</v>
       </c>
       <c r="F5">
-        <v>0.3161984462764572</v>
+        <v>3.106373886794302</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02711121047383215</v>
+        <v>-0.1039814330460372</v>
       </c>
       <c r="C6">
-        <v>0.2779584568479502</v>
+        <v>1.471754775803563</v>
       </c>
       <c r="D6">
-        <v>0.1216586105046287</v>
+        <v>8.504042060525727</v>
       </c>
       <c r="E6">
-        <v>0.34879594393374</v>
+        <v>2.91616907269207</v>
       </c>
       <c r="F6">
-        <v>0.3647135205176791</v>
+        <v>2.945154824746354</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01088135635153479</v>
+        <v>-0.1015771582092904</v>
       </c>
       <c r="C7">
-        <v>0.2849421119723689</v>
+        <v>1.769024061707294</v>
       </c>
       <c r="D7">
-        <v>0.09825224066429059</v>
+        <v>10.29407639076258</v>
       </c>
       <c r="E7">
-        <v>0.3134521345664926</v>
+        <v>3.208438310262889</v>
       </c>
       <c r="F7">
-        <v>0.3302084135617004</v>
+        <v>3.252319194407661</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.04428645741563344</v>
+        <v>-0.1097886217413366</v>
       </c>
       <c r="C8">
-        <v>0.3765628100937468</v>
+        <v>1.815971081873004</v>
       </c>
       <c r="D8">
-        <v>0.1690784592812682</v>
+        <v>10.93971098436304</v>
       </c>
       <c r="E8">
-        <v>0.4111915116843588</v>
+        <v>3.307523391355387</v>
       </c>
       <c r="F8">
-        <v>0.4335975266214011</v>
+        <v>3.353961707055734</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01393931246739222</v>
+        <v>0.007295727682830271</v>
       </c>
       <c r="C9">
-        <v>0.3509192590318558</v>
+        <v>2.609854038779015</v>
       </c>
       <c r="D9">
-        <v>0.1607817096315818</v>
+        <v>19.14435649662439</v>
       </c>
       <c r="E9">
-        <v>0.4009759464501354</v>
+        <v>4.375426435974485</v>
       </c>
       <c r="F9">
-        <v>0.4284022211487281</v>
+        <v>4.50227040007513</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.03688841855209302</v>
+        <v>-0.6545140871090607</v>
       </c>
       <c r="C10">
-        <v>0.2799590153621541</v>
+        <v>2.980052884870046</v>
       </c>
       <c r="D10">
-        <v>0.1329006694222477</v>
+        <v>23.04619067002914</v>
       </c>
       <c r="E10">
-        <v>0.3645554408073589</v>
+        <v>4.800644818149864</v>
       </c>
       <c r="F10">
-        <v>0.3917438359423185</v>
+        <v>4.987943682298893</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06364682135181432</v>
+        <v>-1.720494079722598</v>
       </c>
       <c r="C11">
-        <v>0.1670219060428917</v>
+        <v>2.484259750223869</v>
       </c>
       <c r="D11">
-        <v>0.03807752624502202</v>
+        <v>18.31067100159694</v>
       </c>
       <c r="E11">
-        <v>0.1951346362002964</v>
+        <v>4.279096984364451</v>
       </c>
       <c r="F11">
-        <v>0.2020691219662191</v>
+        <v>4.380435355537797</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
